--- a/TC19_Test_Result_Summary_Table.xlsx
+++ b/TC19_Test_Result_Summary_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test2\it\Project_Test_AcademicService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{74FF4812-1DC3-4EEE-AB9A-D7F7BDAAC9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A48A27-7E81-414E-AC6E-88923BD46172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{3A235D35-76C4-4EDF-91E3-69F514E1C42C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
   <si>
     <t>Test Case</t>
   </si>
@@ -5034,9 +5034,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>loginSchool</a:t>
+              <a:t>School</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5569,9 +5575,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LoginStudent</a:t>
+              <a:t>Student</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5615,7 +5627,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_result!$A$43</c:f>
+              <c:f>summary_result!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5759,19 +5771,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary_result!$B$43:$F$43</c15:sqref>
+                    <c15:sqref>summary_result!$B$44:$F$44</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary_result!$E$43:$F$43</c:f>
+              <c:f>summary_result!$E$44:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>66.666666666666671</c:v>
+                  <c:v>71.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.333333333333336</c:v>
+                  <c:v>28.571428571428573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6106,7 +6118,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LoginLecturer</a:t>
+              <a:t>Lecturer</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6150,7 +6162,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_result!$A$47</c:f>
+              <c:f>summary_result!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6273,11 +6285,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary_result!$B$45:$F$45</c15:sqref>
+                    <c15:sqref>summary_result!$B$47:$F$47</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary_result!$E$45:$F$45</c:f>
+              <c:f>summary_result!$E$47:$F$47</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6294,11 +6306,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary_result!$B$47:$F$47</c15:sqref>
+                    <c15:sqref>summary_result!$B$49:$F$49</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary_result!$E$47:$F$47</c:f>
+              <c:f>summary_result!$E$49:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6342,7 +6354,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$A$46</c15:sqref>
+                          <c15:sqref>summary_result!$A$48</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6468,10 +6480,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary_result!$B$45:$F$45</c15:sqref>
+                          <c15:sqref>summary_result!$B$47:$F$47</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$E$45:$F$45</c15:sqref>
+                          <c15:sqref>summary_result!$E$47:$F$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6491,10 +6503,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary_result!$B$46:$F$46</c15:sqref>
+                          <c15:sqref>summary_result!$B$48:$F$48</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$E$46:$F$46</c15:sqref>
+                          <c15:sqref>summary_result!$E$48:$F$48</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10653,7 +10665,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$A$27</c:f>
+              <c:f>summary!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10797,19 +10809,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary!$B$27:$F$27</c15:sqref>
+                    <c15:sqref>summary!$B$28:$F$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary!$E$27:$F$27</c:f>
+              <c:f>summary!$E$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44.444444444444443</c:v>
+                  <c:v>47.368421052631582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.555555555555557</c:v>
+                  <c:v>52.631578947368418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11219,7 +11231,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$26</c15:sqref>
+                          <c15:sqref>summary!$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11368,10 +11380,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$26:$F$26</c15:sqref>
+                          <c15:sqref>summary!$B$27:$F$27</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$26:$F$26</c15:sqref>
+                          <c15:sqref>summary!$E$27:$F$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -16567,7 +16579,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16595,16 +16607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>618067</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330199</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>262467</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>35983</xdr:rowOff>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16632,15 +16644,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>649817</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>42332</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>270933</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>65617</xdr:rowOff>
+      <xdr:colOff>516467</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171571</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16668,15 +16680,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>93134</xdr:rowOff>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16744,16 +16756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>353785</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2722</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>290285</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>24494</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17098,10 +17110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CD1075-3F11-4327-8473-085030AE5920}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17756,92 +17768,112 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>66.67</v>
+      </c>
+      <c r="F43" s="2">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="2">
-        <f>SUM(B42:B42)</f>
-        <v>6</v>
-      </c>
-      <c r="C43" s="2">
-        <f>SUM(C42:C42)</f>
-        <v>4</v>
-      </c>
-      <c r="D43" s="2">
-        <f>SUM(D42:D42)</f>
+      <c r="B44" s="2">
+        <f>SUM(B42:B43)</f>
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <f>SUM(C42:C43)</f>
+        <v>5</v>
+      </c>
+      <c r="D44" s="2">
+        <f>SUM(D42:D43)</f>
         <v>2</v>
       </c>
-      <c r="E43" s="2">
-        <f>C43*100/B43</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="F43" s="2">
-        <f>D43*100/B43</f>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="2">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2">
-        <v>33.33</v>
-      </c>
-      <c r="F46" s="2">
-        <v>66.67</v>
+      <c r="E44" s="2">
+        <f>C44*100/B44</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F44" s="2">
+        <f>D44*100/B44</f>
+        <v>28.571428571428573</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="F48" s="2">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="2">
-        <f>SUM(B46:B46)</f>
+      <c r="B49" s="2">
+        <f>SUM(B48:B48)</f>
         <v>6</v>
       </c>
-      <c r="C47" s="2">
-        <f>SUM(C46:C46)</f>
+      <c r="C49" s="2">
+        <f>SUM(C48:C48)</f>
         <v>2</v>
       </c>
-      <c r="D47" s="2">
-        <f>SUM(D46:D46)</f>
+      <c r="D49" s="2">
+        <f>SUM(D48:D48)</f>
         <v>4</v>
       </c>
-      <c r="E47" s="2">
-        <f>C47*100/B47</f>
+      <c r="E49" s="2">
+        <f>C49*100/B49</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="F47" s="2">
-        <f>D47*100/B47</f>
+      <c r="F49" s="2">
+        <f>D49*100/B49</f>
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -17853,10 +17885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C89598-45CA-4EEE-91F6-1C95F7437B35}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18314,47 +18346,67 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B26" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>66.67</v>
+      </c>
+      <c r="F26" s="2">
         <v>33.33</v>
-      </c>
-      <c r="F26" s="2">
-        <v>66.67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="F27" s="2">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="2">
-        <f>SUM(B24:B26)</f>
-        <v>18</v>
-      </c>
-      <c r="C27" s="2">
-        <f>SUM(C24:C26)</f>
-        <v>8</v>
-      </c>
-      <c r="D27" s="2">
-        <f>SUM(D24:D26)</f>
+      <c r="B28" s="2">
+        <f>SUM(B24:B27)</f>
+        <v>19</v>
+      </c>
+      <c r="C28" s="2">
+        <f>SUM(C24:C27)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <f>SUM(D24:D27)</f>
         <v>10</v>
       </c>
-      <c r="E27" s="14">
-        <f>C27*100/B27</f>
-        <v>44.444444444444443</v>
-      </c>
-      <c r="F27" s="15">
-        <f>D27*100/B27</f>
-        <v>55.555555555555557</v>
+      <c r="E28" s="14">
+        <f>C28*100/B28</f>
+        <v>47.368421052631582</v>
+      </c>
+      <c r="F28" s="15">
+        <f>D28*100/B28</f>
+        <v>52.631578947368418</v>
       </c>
     </row>
   </sheetData>

--- a/TC19_Test_Result_Summary_Table.xlsx
+++ b/TC19_Test_Result_Summary_Table.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test2\it\Project_Test_AcademicService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A48A27-7E81-414E-AC6E-88923BD46172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C091D4-0E3F-4937-A769-864EC8A83B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{3A235D35-76C4-4EDF-91E3-69F514E1C42C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A235D35-76C4-4EDF-91E3-69F514E1C42C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_result" sheetId="1" r:id="rId1"/>
     <sheet name="summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="30">
   <si>
     <t>Test Case</t>
   </si>
@@ -146,6 +145,12 @@
       <t>Lecturer</t>
     </r>
   </si>
+  <si>
+    <t>[TC17] PreApprovalComment</t>
+  </si>
+  <si>
+    <t>[TC18] PreApprovalComment</t>
+  </si>
 </sst>
 </file>
 
@@ -243,12 +248,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -261,9 +277,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -277,32 +291,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -311,53 +301,40 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -367,11 +344,49 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,10 +669,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>40.322580645161288</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" formatCode="0.00">
                   <c:v>59.677419354838712</c:v>
                 </c:pt>
               </c:numCache>
@@ -853,10 +868,10 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>37.33</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>62.67</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1189,10 +1204,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>44.787644787644787</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" formatCode="0.00">
                   <c:v>55.212355212355213</c:v>
                 </c:pt>
               </c:numCache>
@@ -2473,10 +2488,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>1.3297872340425532</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" formatCode="0.00">
                   <c:v>98.670212765957444</c:v>
                 </c:pt>
               </c:numCache>
@@ -4171,7 +4186,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_result!$A$32</c:f>
+              <c:f>summary_result!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4315,19 +4330,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary_result!$B$32:$F$32</c15:sqref>
+                    <c15:sqref>summary_result!$B$34:$F$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary_result!$E$32:$F$32</c:f>
+              <c:f>summary_result!$E$34:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>44</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>25.581395348837209</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>56</c:v>
+                <c:pt idx="1" formatCode="0.00">
+                  <c:v>74.418604651162795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4522,10 +4537,10 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>43.48</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>56.52</c:v>
                       </c:pt>
                     </c:numCache>
@@ -4737,7 +4752,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$A$31</c15:sqref>
+                          <c15:sqref>summary_result!$A$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4886,10 +4901,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary_result!$B$31:$F$31</c15:sqref>
+                          <c15:sqref>summary_result!$B$32:$F$32</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$E$31:$F$31</c15:sqref>
+                          <c15:sqref>summary_result!$E$32:$F$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5086,7 +5101,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_result!$A$39</c:f>
+              <c:f>summary_result!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5209,11 +5224,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary_result!$B$37:$F$37</c15:sqref>
+                    <c15:sqref>summary_result!$B$39:$F$39</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary_result!$E$37:$F$37</c:f>
+              <c:f>summary_result!$E$39:$F$39</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5230,11 +5245,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary_result!$B$39:$F$39</c15:sqref>
+                    <c15:sqref>summary_result!$B$41:$F$41</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary_result!$E$39:$F$39</c:f>
+              <c:f>summary_result!$E$41:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5278,7 +5293,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$A$38</c15:sqref>
+                          <c15:sqref>summary_result!$A$40</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5404,10 +5419,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary_result!$B$37:$F$37</c15:sqref>
+                          <c15:sqref>summary_result!$B$39:$F$39</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$E$37:$F$37</c15:sqref>
+                          <c15:sqref>summary_result!$E$39:$F$39</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5427,10 +5442,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary_result!$B$38:$F$38</c15:sqref>
+                          <c15:sqref>summary_result!$B$40:$F$40</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$E$38:$F$38</c15:sqref>
+                          <c15:sqref>summary_result!$E$40:$F$40</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5627,7 +5642,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_result!$A$44</c:f>
+              <c:f>summary_result!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5750,11 +5765,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary_result!$B$41:$F$41</c15:sqref>
+                    <c15:sqref>summary_result!$B$43:$F$43</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary_result!$E$41:$F$41</c:f>
+              <c:f>summary_result!$E$43:$F$43</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5771,11 +5786,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary_result!$B$44:$F$44</c15:sqref>
+                    <c15:sqref>summary_result!$B$46:$F$46</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary_result!$E$44:$F$44</c:f>
+              <c:f>summary_result!$E$46:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5819,7 +5834,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$A$42</c15:sqref>
+                          <c15:sqref>summary_result!$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5945,10 +5960,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary_result!$B$41:$F$41</c15:sqref>
+                          <c15:sqref>summary_result!$B$43:$F$43</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$E$41:$F$41</c15:sqref>
+                          <c15:sqref>summary_result!$E$43:$F$43</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5968,10 +5983,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary_result!$B$42:$F$42</c15:sqref>
+                          <c15:sqref>summary_result!$B$44:$F$44</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$E$42:$F$42</c15:sqref>
+                          <c15:sqref>summary_result!$E$44:$F$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6162,7 +6177,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary_result!$A$49</c:f>
+              <c:f>summary_result!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6285,11 +6300,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary_result!$B$47:$F$47</c15:sqref>
+                    <c15:sqref>summary_result!$B$49:$F$49</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary_result!$E$47:$F$47</c:f>
+              <c:f>summary_result!$E$49:$F$49</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6306,11 +6321,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary_result!$B$49:$F$49</c15:sqref>
+                    <c15:sqref>summary_result!$B$51:$F$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary_result!$E$49:$F$49</c:f>
+              <c:f>summary_result!$E$51:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6354,7 +6369,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$A$48</c15:sqref>
+                          <c15:sqref>summary_result!$A$50</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6480,10 +6495,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary_result!$B$47:$F$47</c15:sqref>
+                          <c15:sqref>summary_result!$B$49:$F$49</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$E$47:$F$47</c15:sqref>
+                          <c15:sqref>summary_result!$E$49:$F$49</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6503,10 +6518,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary_result!$B$48:$F$48</c15:sqref>
+                          <c15:sqref>summary_result!$B$50:$F$50</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary_result!$E$48:$F$48</c15:sqref>
+                          <c15:sqref>summary_result!$E$50:$F$50</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6691,7 +6706,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$A$19</c:f>
+              <c:f>summary!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6860,19 +6875,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary!$B$19:$F$19</c15:sqref>
+                    <c15:sqref>summary!$B$22:$F$22</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary!$E$19:$F$19</c:f>
+              <c:f>summary!$E$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>23.216601815823605</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>23.958333333333332</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.783398184176392</c:v>
+                <c:pt idx="1" formatCode="0.00">
+                  <c:v>76.041666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7092,10 +7107,10 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>42.34</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>57.66</c:v>
                       </c:pt>
                     </c:numCache>
@@ -7516,10 +7531,10 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>46.81</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>53.19</c:v>
                       </c:pt>
                     </c:numCache>
@@ -7728,10 +7743,10 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>51.72</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>48.28</c:v>
                       </c:pt>
                     </c:numCache>
@@ -7940,10 +7955,10 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>44.68</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>55.32</c:v>
                       </c:pt>
                     </c:numCache>
@@ -8152,10 +8167,10 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>42.34</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>57.66</c:v>
                       </c:pt>
                     </c:numCache>
@@ -8180,7 +8195,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$8</c15:sqref>
+                          <c15:sqref>summary!$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8354,20 +8369,20 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$8:$F$8</c15:sqref>
+                          <c15:sqref>summary!$B$9:$F$9</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$8:$F$8</c15:sqref>
+                          <c15:sqref>summary!$E$9:$F$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>29.41</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>70.59</c:v>
                       </c:pt>
                     </c:numCache>
@@ -8392,7 +8407,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$9</c15:sqref>
+                          <c15:sqref>summary!$A$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8566,20 +8581,20 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$9:$F$9</c15:sqref>
+                          <c15:sqref>summary!$B$10:$F$10</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$9:$F$9</c15:sqref>
+                          <c15:sqref>summary!$E$10:$F$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -8604,7 +8619,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$10</c15:sqref>
+                          <c15:sqref>summary!$A$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8778,20 +8793,20 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$10:$F$10</c15:sqref>
+                          <c15:sqref>summary!$B$11:$F$11</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$10:$F$10</c15:sqref>
+                          <c15:sqref>summary!$E$11:$F$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -8816,7 +8831,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$11</c15:sqref>
+                          <c15:sqref>summary!$A$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8990,20 +9005,20 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$11:$F$11</c15:sqref>
+                          <c15:sqref>summary!$B$12:$F$12</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$11:$F$11</c15:sqref>
+                          <c15:sqref>summary!$E$12:$F$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -9028,7 +9043,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$12</c15:sqref>
+                          <c15:sqref>summary!$A$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9202,20 +9217,20 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$12:$F$12</c15:sqref>
+                          <c15:sqref>summary!$B$13:$F$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$12:$F$12</c15:sqref>
+                          <c15:sqref>summary!$E$13:$F$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -9240,7 +9255,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$13</c15:sqref>
+                          <c15:sqref>summary!$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9414,20 +9429,20 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$13:$F$13</c15:sqref>
+                          <c15:sqref>summary!$B$14:$F$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$13:$F$13</c15:sqref>
+                          <c15:sqref>summary!$E$14:$F$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -9452,7 +9467,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$14</c15:sqref>
+                          <c15:sqref>summary!$A$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9626,20 +9641,20 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$14:$F$14</c15:sqref>
+                          <c15:sqref>summary!$B$15:$F$15</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$14:$F$14</c15:sqref>
+                          <c15:sqref>summary!$E$15:$F$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -9664,7 +9679,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$15</c15:sqref>
+                          <c15:sqref>summary!$A$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9838,20 +9853,20 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$15:$F$15</c15:sqref>
+                          <c15:sqref>summary!$B$16:$F$16</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$15:$F$15</c15:sqref>
+                          <c15:sqref>summary!$E$16:$F$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -9876,7 +9891,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$16</c15:sqref>
+                          <c15:sqref>summary!$A$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10050,20 +10065,20 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$16:$F$16</c15:sqref>
+                          <c15:sqref>summary!$B$17:$F$17</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$16:$F$16</c15:sqref>
+                          <c15:sqref>summary!$E$17:$F$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>43.48</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>56.52</c:v>
                       </c:pt>
                     </c:numCache>
@@ -10088,7 +10103,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$17</c15:sqref>
+                          <c15:sqref>summary!$A$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10262,20 +10277,20 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$17:$F$17</c15:sqref>
+                          <c15:sqref>summary!$B$18:$F$18</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$17:$F$17</c15:sqref>
+                          <c15:sqref>summary!$E$18:$F$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>100</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -10300,7 +10315,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$18</c15:sqref>
+                          <c15:sqref>summary!$A$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10474,20 +10489,20 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$18:$F$18</c15:sqref>
+                          <c15:sqref>summary!$B$20:$F$20</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$18:$F$18</c15:sqref>
+                          <c15:sqref>summary!$E$20:$F$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="0.00">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="1" formatCode="0.00">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -10665,7 +10680,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$A$28</c:f>
+              <c:f>summary!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10788,11 +10803,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary!$B$23:$F$23</c15:sqref>
+                    <c15:sqref>summary!$B$26:$F$26</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary!$E$23:$F$23</c:f>
+              <c:f>summary!$E$26:$F$26</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -10809,11 +10824,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>summary!$B$28:$F$28</c15:sqref>
+                    <c15:sqref>summary!$B$31:$F$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>summary!$E$28:$F$28</c:f>
+              <c:f>summary!$E$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -10857,7 +10872,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$24</c15:sqref>
+                          <c15:sqref>summary!$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10983,10 +10998,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$23:$F$23</c15:sqref>
+                          <c15:sqref>summary!$B$26:$F$26</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$23:$F$23</c15:sqref>
+                          <c15:sqref>summary!$E$26:$F$26</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11006,10 +11021,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$24:$F$24</c15:sqref>
+                          <c15:sqref>summary!$B$27:$F$27</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$24:$F$24</c15:sqref>
+                          <c15:sqref>summary!$E$27:$F$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11044,7 +11059,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$25</c15:sqref>
+                          <c15:sqref>summary!$A$28</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11170,10 +11185,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$23:$F$23</c15:sqref>
+                          <c15:sqref>summary!$B$26:$F$26</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$23:$F$23</c15:sqref>
+                          <c15:sqref>summary!$E$26:$F$26</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11193,10 +11208,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$25:$F$25</c15:sqref>
+                          <c15:sqref>summary!$B$28:$F$28</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$25:$F$25</c15:sqref>
+                          <c15:sqref>summary!$E$28:$F$28</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11231,7 +11246,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>summary!$A$27</c15:sqref>
+                          <c15:sqref>summary!$A$30</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11357,10 +11372,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$23:$F$23</c15:sqref>
+                          <c15:sqref>summary!$B$26:$F$26</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$23:$F$23</c15:sqref>
+                          <c15:sqref>summary!$E$26:$F$26</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11380,10 +11395,10 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>summary!$B$27:$F$27</c15:sqref>
+                          <c15:sqref>summary!$B$30:$F$30</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>summary!$E$27:$F$27</c15:sqref>
+                          <c15:sqref>summary!$E$30:$F$30</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -16543,7 +16558,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>262466</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>99483</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16573,13 +16588,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16609,13 +16624,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>330199</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>67732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>33866</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16645,13 +16660,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>76198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>516467</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>171571</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16681,13 +16696,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16728,7 +16743,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>145141</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16758,13 +16773,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>166008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>6351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17110,10 +17125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CD1075-3F11-4327-8473-085030AE5920}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17155,10 +17170,10 @@
       <c r="D2" s="2">
         <v>64</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>42.34</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>57.66</v>
       </c>
     </row>
@@ -17175,10 +17190,10 @@
       <c r="D3" s="2">
         <v>47</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>37.33</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>62.67</v>
       </c>
     </row>
@@ -17198,11 +17213,11 @@
         <f>SUM(D2:D3)</f>
         <v>111</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f>C4*100/B4</f>
         <v>40.322580645161288</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <f>D4*100/B4</f>
         <v>59.677419354838712</v>
       </c>
@@ -17343,11 +17358,11 @@
         <f>SUM(D8:D12)</f>
         <v>143</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <f>C13*100/B13</f>
         <v>44.787644787644787</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <f>D13*100/B13</f>
         <v>55.212355212355213</v>
       </c>
@@ -17548,11 +17563,11 @@
         <f>SUM(D17:D24)</f>
         <v>371</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <f>C25*100/B25</f>
         <v>1.3297872340425532</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <f>D25*100/B25</f>
         <v>98.670212765957444</v>
       </c>
@@ -17578,302 +17593,342 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="10">
         <v>23</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="10">
         <v>10</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="10">
         <v>13</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="11">
         <v>43.48</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="11">
         <v>56.52</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="10">
         <v>1</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="10">
         <v>0</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="11">
         <v>100</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="16">
+        <v>9</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>9</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="10">
         <v>0</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D32" s="10">
         <v>1</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="11">
         <v>0</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="16">
+        <v>9</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <v>9</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2">
-        <f>SUM(B29:B31)</f>
-        <v>25</v>
-      </c>
-      <c r="C32" s="2">
-        <f>SUM(C29:C31)</f>
+      <c r="B34" s="15">
+        <f>SUM(B29:B33)</f>
+        <v>43</v>
+      </c>
+      <c r="C34" s="15">
+        <f>SUM(C29:C33)</f>
         <v>11</v>
       </c>
-      <c r="D32" s="2">
-        <f>SUM(D29:D31)</f>
-        <v>14</v>
-      </c>
-      <c r="E32" s="2">
-        <f>C32*100/B32</f>
-        <v>44</v>
-      </c>
-      <c r="F32" s="2">
-        <f>D32*100/B32</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="2">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2">
-        <v>4</v>
-      </c>
-      <c r="E38" s="2">
-        <v>33.33</v>
-      </c>
-      <c r="F38" s="2">
-        <v>66.67</v>
+      <c r="D34" s="15">
+        <f>SUM(D29:D33)</f>
+        <v>32</v>
+      </c>
+      <c r="E34" s="18">
+        <f>C34*100/B34</f>
+        <v>25.581395348837209</v>
+      </c>
+      <c r="F34" s="18">
+        <f>D34*100/B34</f>
+        <v>74.418604651162795</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2">
-        <f>SUM(B38:B38)</f>
+      <c r="A39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="2">
-        <f>SUM(C38:C38)</f>
+      <c r="C40" s="2">
         <v>2</v>
       </c>
-      <c r="D39" s="2">
-        <f>SUM(D38:D38)</f>
+      <c r="D40" s="2">
         <v>4</v>
       </c>
-      <c r="E39" s="2">
-        <f>C39*100/B39</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="F39" s="2">
-        <f>D39*100/B39</f>
-        <v>66.666666666666671</v>
+      <c r="E40" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="F40" s="2">
+        <v>66.67</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2">
+        <f>SUM(B40:B40)</f>
+        <v>6</v>
+      </c>
+      <c r="C41" s="2">
+        <f>SUM(C40:C40)</f>
         <v>2</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="2">
+        <f>SUM(D40:D40)</f>
         <v>4</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="2">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2">
-        <v>4</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-      <c r="E42" s="3">
-        <v>66.67</v>
-      </c>
-      <c r="F42" s="2">
-        <v>33.33</v>
+      <c r="E41" s="2">
+        <f>C41*100/B41</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="F41" s="2">
+        <f>D41*100/B41</f>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>66.67</v>
-      </c>
-      <c r="F43" s="2">
-        <v>33.33</v>
+      <c r="B43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="2">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3">
+        <v>66.67</v>
+      </c>
+      <c r="F44" s="2">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>66.67</v>
+      </c>
+      <c r="F45" s="2">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="2">
-        <f>SUM(B42:B43)</f>
+      <c r="B46" s="2">
+        <f>SUM(B44:B45)</f>
         <v>7</v>
       </c>
-      <c r="C44" s="2">
-        <f>SUM(C42:C43)</f>
+      <c r="C46" s="2">
+        <f>SUM(C44:C45)</f>
         <v>5</v>
       </c>
-      <c r="D44" s="2">
-        <f>SUM(D42:D43)</f>
+      <c r="D46" s="2">
+        <f>SUM(D44:D45)</f>
         <v>2</v>
       </c>
-      <c r="E44" s="2">
-        <f>C44*100/B44</f>
+      <c r="E46" s="2">
+        <f>C46*100/B46</f>
         <v>71.428571428571431</v>
       </c>
-      <c r="F44" s="2">
-        <f>D44*100/B44</f>
+      <c r="F46" s="2">
+        <f>D46*100/B46</f>
         <v>28.571428571428573</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="2">
-        <v>6</v>
-      </c>
-      <c r="C48" s="2">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2">
-        <v>4</v>
-      </c>
-      <c r="E48" s="2">
-        <v>33.33</v>
-      </c>
-      <c r="F48" s="2">
-        <v>66.67</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="2">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="F50" s="2">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="2">
-        <f>SUM(B48:B48)</f>
+      <c r="B51" s="2">
+        <f>SUM(B50:B50)</f>
         <v>6</v>
       </c>
-      <c r="C49" s="2">
-        <f>SUM(C48:C48)</f>
+      <c r="C51" s="2">
+        <f>SUM(C50:C50)</f>
         <v>2</v>
       </c>
-      <c r="D49" s="2">
-        <f>SUM(D48:D48)</f>
+      <c r="D51" s="2">
+        <f>SUM(D50:D50)</f>
         <v>4</v>
       </c>
-      <c r="E49" s="2">
-        <f>C49*100/B49</f>
+      <c r="E51" s="2">
+        <f>C51*100/B51</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="F49" s="2">
-        <f>D49*100/B49</f>
+      <c r="F51" s="2">
+        <f>D51*100/B51</f>
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -17885,10 +17940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C89598-45CA-4EEE-91F6-1C95F7437B35}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17903,470 +17958,470 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="22">
         <v>111</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="22">
         <v>47</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="22">
         <v>64</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="23">
         <v>42.34</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="23">
         <v>57.66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="8">
         <v>25</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="8">
         <v>11</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="8">
         <v>14</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="9">
         <v>44</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="9">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="8">
         <v>47</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="8">
         <v>22</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="8">
         <v>25</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="9">
         <v>46.81</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="9">
         <v>53.19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="8">
         <v>29</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="8">
         <v>15</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="8">
         <v>14</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="9">
         <v>51.72</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="9">
         <v>48.28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="8">
         <v>47</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="8">
         <v>21</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="8">
         <v>26</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="9">
         <v>44.68</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="9">
         <v>55.32</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="8">
         <v>111</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="8">
         <v>47</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="8">
         <v>64</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="9">
         <v>42.34</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="9">
         <v>57.66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11">
-        <v>12</v>
-      </c>
-      <c r="E8" s="11">
-        <v>29.41</v>
-      </c>
-      <c r="F8" s="11">
-        <v>70.59</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>75</v>
+      </c>
+      <c r="C8" s="8">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8">
+        <v>47</v>
+      </c>
+      <c r="E8" s="9">
+        <v>37.33</v>
+      </c>
+      <c r="F8" s="9">
+        <v>62.67</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>100</v>
+      <c r="A9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="22">
+        <v>17</v>
+      </c>
+      <c r="C9" s="22">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22">
+        <v>12</v>
+      </c>
+      <c r="E9" s="23">
+        <v>29.41</v>
+      </c>
+      <c r="F9" s="23">
+        <v>70.59</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11">
-        <v>143</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22">
         <v>0</v>
       </c>
-      <c r="D10" s="11">
-        <v>143</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23">
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="22">
         <v>143</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="22">
         <v>0</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="22">
         <v>143</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="23">
         <v>0</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11">
+      <c r="B12" s="22">
+        <v>143</v>
+      </c>
+      <c r="C12" s="22">
         <v>0</v>
       </c>
-      <c r="D12" s="11">
-        <v>17</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="22">
+        <v>143</v>
+      </c>
+      <c r="E12" s="23">
         <v>0</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="22">
         <v>17</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="22">
         <v>0</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="22">
         <v>17</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="23">
         <v>0</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11">
+      <c r="B14" s="22">
+        <v>17</v>
+      </c>
+      <c r="C14" s="22">
         <v>0</v>
       </c>
-      <c r="D14" s="11">
-        <v>19</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="22">
+        <v>17</v>
+      </c>
+      <c r="E14" s="23">
         <v>0</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="A15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="22">
         <v>19</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="22">
         <v>0</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="22">
         <v>19</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="23">
         <v>0</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="11">
-        <v>23</v>
-      </c>
-      <c r="C16" s="11">
-        <v>10</v>
-      </c>
-      <c r="D16" s="11">
-        <v>13</v>
-      </c>
-      <c r="E16" s="11">
-        <v>43.48</v>
-      </c>
-      <c r="F16" s="11">
-        <v>56.52</v>
+      <c r="A16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="22">
+        <v>19</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
+        <v>19</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="11">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>100</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
+      <c r="A17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="22">
+        <v>23</v>
+      </c>
+      <c r="C17" s="22">
+        <v>10</v>
+      </c>
+      <c r="D17" s="22">
+        <v>13</v>
+      </c>
+      <c r="E17" s="23">
+        <v>43.48</v>
+      </c>
+      <c r="F17" s="23">
+        <v>56.52</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="A18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="22">
         <v>1</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="22">
+        <v>1</v>
+      </c>
+      <c r="D18" s="22">
         <v>0</v>
       </c>
-      <c r="D18" s="11">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="E18" s="23">
+        <v>100</v>
+      </c>
+      <c r="F18" s="23">
         <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="22">
+        <v>9</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="22">
+        <v>9</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="22">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="22">
+        <v>9</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22">
+        <v>9</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="11">
-        <f>SUM(B2:B18)</f>
-        <v>771</v>
-      </c>
-      <c r="C19" s="11">
-        <f>SUM(C2:C18)</f>
-        <v>179</v>
-      </c>
-      <c r="D19" s="11">
-        <f>SUM(D2:D18)</f>
-        <v>592</v>
-      </c>
-      <c r="E19" s="12">
-        <f>C19*100/B19</f>
-        <v>23.216601815823605</v>
-      </c>
-      <c r="F19" s="13">
-        <f>D19*100/B19</f>
-        <v>76.783398184176392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2">
-        <v>33.33</v>
-      </c>
-      <c r="F24" s="2">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>66.67</v>
-      </c>
-      <c r="F25" s="2">
-        <v>33.33</v>
+      <c r="B22" s="22">
+        <f>SUM(B2:B21)</f>
+        <v>864</v>
+      </c>
+      <c r="C22" s="22">
+        <f>SUM(C2:C21)</f>
+        <v>207</v>
+      </c>
+      <c r="D22" s="22">
+        <f>SUM(D2:D21)</f>
+        <v>657</v>
+      </c>
+      <c r="E22" s="24">
+        <f>C22*100/B22</f>
+        <v>23.958333333333332</v>
+      </c>
+      <c r="F22" s="25">
+        <f>D22*100/B22</f>
+        <v>76.041666666666671</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="3">
-        <v>66.67</v>
-      </c>
-      <c r="F26" s="2">
-        <v>33.33</v>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>25</v>
+      <c r="A27" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B27" s="2">
         <v>6</v>
@@ -18385,27 +18440,87 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>66.67</v>
+      </c>
+      <c r="F28" s="2">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>66.67</v>
+      </c>
+      <c r="F29" s="2">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="F30" s="2">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="2">
-        <f>SUM(B24:B27)</f>
+      <c r="B31" s="2">
+        <f>SUM(B27:B30)</f>
         <v>19</v>
       </c>
-      <c r="C28" s="2">
-        <f>SUM(C24:C27)</f>
+      <c r="C31" s="2">
+        <f>SUM(C27:C30)</f>
         <v>9</v>
       </c>
-      <c r="D28" s="2">
-        <f>SUM(D24:D27)</f>
+      <c r="D31" s="2">
+        <f>SUM(D27:D30)</f>
         <v>10</v>
       </c>
-      <c r="E28" s="14">
-        <f>C28*100/B28</f>
+      <c r="E31" s="6">
+        <f>C31*100/B31</f>
         <v>47.368421052631582</v>
       </c>
-      <c r="F28" s="15">
-        <f>D28*100/B28</f>
+      <c r="F31" s="7">
+        <f>D31*100/B31</f>
         <v>52.631578947368418</v>
       </c>
     </row>

--- a/TC19_Test_Result_Summary_Table.xlsx
+++ b/TC19_Test_Result_Summary_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test2\it\Project_Test_AcademicService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C091D4-0E3F-4937-A769-864EC8A83B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FFDED7-6C64-4B78-8181-F37DA7690A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A235D35-76C4-4EDF-91E3-69F514E1C42C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{3A235D35-76C4-4EDF-91E3-69F514E1C42C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_result" sheetId="1" r:id="rId1"/>
@@ -336,8 +336,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,6 +386,8 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -2489,10 +2489,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>1.3297872340425532</c:v>
+                  <c:v>1.2690355329949239</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0.00">
-                  <c:v>98.670212765957444</c:v>
+                  <c:v>98.73096446700508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5253,10 +5253,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>33.333333333333336</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" formatCode="0.00">
                   <c:v>66.666666666666671</c:v>
                 </c:pt>
               </c:numCache>
@@ -5794,10 +5794,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>71.428571428571431</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" formatCode="0.00">
                   <c:v>28.571428571428573</c:v>
                 </c:pt>
               </c:numCache>
@@ -6329,10 +6329,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>33.333333333333336</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" formatCode="0.00">
                   <c:v>66.666666666666671</c:v>
                 </c:pt>
               </c:numCache>
@@ -6884,10 +6884,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>23.958333333333332</c:v>
+                  <c:v>23.469387755102041</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0.00">
-                  <c:v>76.041666666666671</c:v>
+                  <c:v>76.530612244897952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10832,10 +10832,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>47.368421052631582</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" formatCode="0.00">
                   <c:v>52.631578947368418</c:v>
                 </c:pt>
               </c:numCache>
@@ -17127,8 +17127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CD1075-3F11-4327-8473-085030AE5920}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+    <sheetView topLeftCell="A30" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17512,13 +17512,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -17532,13 +17532,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -17553,7 +17553,7 @@
       </c>
       <c r="B25" s="2">
         <f>SUM(B17:B24)</f>
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C25" s="2">
         <f>SUM(C17:C24)</f>
@@ -17561,15 +17561,15 @@
       </c>
       <c r="D25" s="2">
         <f>SUM(D17:D24)</f>
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E25" s="3">
         <f>C25*100/B25</f>
-        <v>1.3297872340425532</v>
+        <v>1.2690355329949239</v>
       </c>
       <c r="F25" s="3">
         <f>D25*100/B25</f>
-        <v>98.670212765957444</v>
+        <v>98.73096446700508</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -17593,102 +17593,102 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>23</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>10</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>13</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="9">
         <v>43.48</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="9">
         <v>56.52</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <v>1</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>0</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="9">
         <v>100</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>9</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="14">
         <v>0</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="14">
         <v>9</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <v>0</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <v>0</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="9">
         <v>0</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="14">
         <v>9</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="14">
         <v>0</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="14">
         <v>9</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
         <v>0</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="15">
         <v>100</v>
       </c>
     </row>
@@ -17696,23 +17696,23 @@
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="13">
         <f>SUM(B29:B33)</f>
         <v>43</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <f>SUM(C29:C33)</f>
         <v>11</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <f>SUM(D29:D33)</f>
         <v>32</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="16">
         <f>C34*100/B34</f>
         <v>25.581395348837209</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <f>D34*100/B34</f>
         <v>74.418604651162795</v>
       </c>
@@ -17773,11 +17773,11 @@
         <f>SUM(D40:D40)</f>
         <v>4</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <f>C41*100/B41</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <f>D41*100/B41</f>
         <v>66.666666666666671</v>
       </c>
@@ -17858,11 +17858,11 @@
         <f>SUM(D44:D45)</f>
         <v>2</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <f>C46*100/B46</f>
         <v>71.428571428571431</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <f>D46*100/B46</f>
         <v>28.571428571428573</v>
       </c>
@@ -17923,11 +17923,11 @@
         <f>SUM(D50:D50)</f>
         <v>4</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <f>C51*100/B51</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <f>D51*100/B51</f>
         <v>66.666666666666671</v>
       </c>
@@ -17942,8 +17942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C89598-45CA-4EEE-91F6-1C95F7437B35}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17975,122 +17975,122 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>111</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>47</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>64</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="21">
         <v>42.34</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="21">
         <v>57.66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>25</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>11</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>14</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>44</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>47</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>22</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>25</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>46.81</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>53.19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>29</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>14</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>51.72</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>48.28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>47</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>21</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>26</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>44.68</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>55.32</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>111</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>47</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>64</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>42.34</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>57.66</v>
       </c>
     </row>
@@ -18098,305 +18098,305 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>75</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>28</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>47</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>37.33</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>62.67</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>17</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>5</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>12</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>29.41</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="21">
         <v>70.59</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>1</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>0</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>1</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>0</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>143</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <v>0</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <v>143</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>0</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <v>143</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="20">
         <v>0</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <v>143</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>0</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="20">
         <v>17</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="20">
         <v>0</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <v>17</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>0</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="20">
         <v>17</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="20">
         <v>0</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="20">
         <v>17</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>0</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="22">
-        <v>19</v>
-      </c>
-      <c r="C15" s="22">
+      <c r="B15" s="6">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6">
         <v>0</v>
       </c>
-      <c r="D15" s="22">
-        <v>19</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="D15" s="6">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="22">
-        <v>19</v>
-      </c>
-      <c r="C16" s="22">
+      <c r="B16" s="6">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="22">
-        <v>19</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="6">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="20">
         <v>23</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="20">
         <v>10</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="20">
         <v>13</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>43.48</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>56.52</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <v>1</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <v>1</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="20">
         <v>0</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>100</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <v>9</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="20">
         <v>0</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <v>9</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>0</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <v>1</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="20">
         <v>0</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="20">
         <v>1</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>0</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <v>9</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <v>0</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="20">
         <v>9</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>0</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="20">
         <f>SUM(B2:B21)</f>
-        <v>864</v>
-      </c>
-      <c r="C22" s="22">
+        <v>882</v>
+      </c>
+      <c r="C22" s="20">
         <f>SUM(C2:C21)</f>
         <v>207</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="20">
         <f>SUM(D2:D21)</f>
-        <v>657</v>
-      </c>
-      <c r="E22" s="24">
+        <v>675</v>
+      </c>
+      <c r="E22" s="22">
         <f>C22*100/B22</f>
-        <v>23.958333333333332</v>
-      </c>
-      <c r="F22" s="25">
+        <v>23.469387755102041</v>
+      </c>
+      <c r="F22" s="23">
         <f>D22*100/B22</f>
-        <v>76.041666666666671</v>
+        <v>76.530612244897952</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -18515,11 +18515,11 @@
         <f>SUM(D27:D30)</f>
         <v>10</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="24">
         <f>C31*100/B31</f>
         <v>47.368421052631582</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="25">
         <f>D31*100/B31</f>
         <v>52.631578947368418</v>
       </c>

--- a/TC19_Test_Result_Summary_Table.xlsx
+++ b/TC19_Test_Result_Summary_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test2\it\Project_Test_AcademicService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FFDED7-6C64-4B78-8181-F37DA7690A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C62C8A8-3D7F-4CF9-9D59-5587F5D4272E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{3A235D35-76C4-4EDF-91E3-69F514E1C42C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A235D35-76C4-4EDF-91E3-69F514E1C42C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_result" sheetId="1" r:id="rId1"/>
@@ -2489,10 +2489,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>1.2690355329949239</c:v>
+                  <c:v>2.2842639593908629</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0.00">
-                  <c:v>98.73096446700508</c:v>
+                  <c:v>97.71573604060913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2688,10 +2688,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>29.41</c:v>
+                        <c:v>52.94</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>70.59</c:v>
+                        <c:v>47.06</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6884,10 +6884,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>23.469387755102041</c:v>
+                  <c:v>23.922902494331066</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0.00">
-                  <c:v>76.530612244897952</c:v>
+                  <c:v>76.077097505668931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8379,11 +8379,11 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
-                      <c:pt idx="0" formatCode="0.00">
-                        <c:v>29.41</c:v>
-                      </c:pt>
-                      <c:pt idx="1" formatCode="0.00">
-                        <c:v>70.59</c:v>
+                      <c:pt idx="0">
+                        <c:v>52.94</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>47.06</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16736,15 +16736,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>625928</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>35378</xdr:rowOff>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>126092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>145141</xdr:rowOff>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17127,8 +17127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CD1075-3F11-4327-8473-085030AE5920}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:F41"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17395,16 +17395,16 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2">
-        <v>29.41</v>
+        <v>52.94</v>
       </c>
       <c r="F17" s="2">
-        <v>70.59</v>
+        <v>47.06</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -17557,19 +17557,19 @@
       </c>
       <c r="C25" s="2">
         <f>SUM(C17:C24)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2">
         <f>SUM(D17:D24)</f>
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E25" s="3">
         <f>C25*100/B25</f>
-        <v>1.2690355329949239</v>
+        <v>2.2842639593908629</v>
       </c>
       <c r="F25" s="3">
         <f>D25*100/B25</f>
-        <v>98.73096446700508</v>
+        <v>97.71573604060913</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -17942,8 +17942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C89598-45CA-4EEE-91F6-1C95F7437B35}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F31"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18118,20 +18118,20 @@
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="6">
         <v>17</v>
       </c>
-      <c r="C9" s="20">
-        <v>5</v>
-      </c>
-      <c r="D9" s="20">
-        <v>12</v>
-      </c>
-      <c r="E9" s="21">
-        <v>29.41</v>
-      </c>
-      <c r="F9" s="21">
-        <v>70.59</v>
+      <c r="C9" s="6">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
+        <v>52.94</v>
+      </c>
+      <c r="F9" s="6">
+        <v>47.06</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18384,19 +18384,19 @@
       </c>
       <c r="C22" s="20">
         <f>SUM(C2:C21)</f>
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D22" s="20">
         <f>SUM(D2:D21)</f>
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E22" s="22">
         <f>C22*100/B22</f>
-        <v>23.469387755102041</v>
+        <v>23.922902494331066</v>
       </c>
       <c r="F22" s="23">
         <f>D22*100/B22</f>
-        <v>76.530612244897952</v>
+        <v>76.077097505668931</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
